--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5DB9A-CBC2-497F-9FC8-2A5A52BD0281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-22980" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="174">
   <si>
     <t>Typ</t>
   </si>
@@ -559,16 +567,18 @@
   </si>
   <si>
     <t>&lt;div style="min-height:452px" id="datawrapper-vis-w9nsB"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/w9nsB/embed.js" charset="utf-8" data-target="#datawrapper-vis-w9nsB"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/w9nsB/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>ZG_Transparenzinitiative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -580,7 +590,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -598,18 +608,333 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -661,7 +986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -687,7 +1012,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -713,7 +1038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -739,7 +1064,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -765,7 +1090,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -791,7 +1116,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -817,12 +1142,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -843,12 +1168,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -869,12 +1194,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -895,12 +1220,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -921,7 +1246,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -947,7 +1272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -973,7 +1298,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1324,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1376,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1402,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1428,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1454,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1480,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1506,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1636,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1662,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1364,6 +1689,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5DB9A-CBC2-497F-9FC8-2A5A52BD0281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D9D4E-D949-4AEB-982A-81CA889B2509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22980" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>BE_Concordat</t>
   </si>
   <si>
-    <t>FR_prestations_complementaires_familles</t>
-  </si>
-  <si>
     <t>JU_Concordat</t>
   </si>
   <si>
@@ -570,6 +567,9 @@
   </si>
   <si>
     <t>ZG_Transparenzinitiative</t>
+  </si>
+  <si>
+    <t>FR_prestations_complementaires</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,22 +968,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -994,22 +994,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1017,25 +1017,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,25 +1043,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,25 +1069,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1095,25 +1095,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,25 +1121,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,25 +1147,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1173,25 +1173,25 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,25 +1199,25 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,25 +1225,25 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1251,25 +1251,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,25 +1277,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1303,25 +1303,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,25 +1329,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,25 +1355,25 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,25 +1381,25 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,25 +1407,25 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,25 +1433,25 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,25 +1459,25 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,25 +1485,25 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,25 +1511,25 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,25 +1537,25 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,25 +1563,25 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,25 +1589,25 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,25 +1615,25 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,25 +1641,25 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,25 +1667,25 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D9D4E-D949-4AEB-982A-81CA889B2509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD49141-3438-4CE7-83C4-470AEE54EBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="170">
   <si>
     <t>Typ</t>
   </si>
@@ -274,9 +274,6 @@
     <t>rJrpc</t>
   </si>
   <si>
-    <t>Z5AFC</t>
-  </si>
-  <si>
     <t>6WMjM</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>https://datawrapper.dwcdn.net/rJrpc/1/</t>
   </si>
   <si>
-    <t>https://datawrapper.dwcdn.net/Z5AFC/1/</t>
-  </si>
-  <si>
     <t>https://datawrapper.dwcdn.net/6WMjM/1/</t>
   </si>
   <si>
@@ -466,10 +460,6 @@
 &lt;/script&gt;</t>
   </si>
   <si>
-    <t>&lt;iframe title="GR: Voti cantonali del 22 settembre 2024" aria-label="Barre impilate" id="datawrapper-chart-Z5AFC" src="https://datawrapper.dwcdn.net/Z5AFC/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;iframe title="GR: Voti cantonali del 22 settembre 2024" aria-label="Barre impilate" id="datawrapper-chart-6WMjM" src="https://datawrapper.dwcdn.net/6WMjM/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
 &lt;/script&gt;</t>
   </si>
@@ -552,9 +542,6 @@
   </si>
   <si>
     <t>&lt;div style="min-height:469px" id="datawrapper-vis-rJrpc"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/rJrpc/embed.js" charset="utf-8" data-target="#datawrapper-vis-rJrpc"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/rJrpc/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-Z5AFC"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Z5AFC/embed.js" charset="utf-8" data-target="#datawrapper-vis-Z5AFC"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Z5AFC/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div style="min-height:469px" id="datawrapper-vis-6WMjM"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/6WMjM/embed.js" charset="utf-8" data-target="#datawrapper-vis-6WMjM"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/6WMjM/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
@@ -921,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +964,13 @@
         <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,13 +990,13 @@
         <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1017,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -1029,13 +1016,13 @@
         <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -1055,13 +1042,13 @@
         <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,13 +1068,13 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,13 +1094,13 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1133,13 +1120,13 @@
         <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1159,13 +1146,13 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1173,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -1185,13 +1172,13 @@
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -1211,13 +1198,13 @@
         <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1237,13 +1224,13 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,13 +1250,13 @@
         <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1289,13 +1276,13 @@
         <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,13 +1302,13 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1341,13 +1328,13 @@
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,13 +1354,13 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,13 +1380,13 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,13 +1406,13 @@
         <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,13 +1432,13 @@
         <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,13 +1458,13 @@
         <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1497,13 +1484,13 @@
         <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,13 +1510,13 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,13 +1562,13 @@
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,13 +1588,13 @@
         <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,25 +1602,25 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,10 +1628,10 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -1653,39 +1640,13 @@
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD49141-3438-4CE7-83C4-470AEE54EBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D0C05-AB81-45BA-B722-C767927A74A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
   <si>
     <t>Typ</t>
   </si>
@@ -118,24 +118,12 @@
     <t>Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura</t>
   </si>
   <si>
-    <t>Concordat sur le transfert de la commune de Moutier au canton du Jura</t>
-  </si>
-  <si>
     <t>Gesetz über die Ergänzungsleistungen für Familien</t>
   </si>
   <si>
     <t>Loi sur les prestations complémentaires pour les familles</t>
   </si>
   <si>
-    <t>Acte relatif à l'approbation du Concordat entre le Canton de Berne et la République et Canton du Jura concernant le transfert de la commune municipale de Moutier dans le canton du Jura et à l'abrogation de l'article 139 de la Constitution</t>
-  </si>
-  <si>
-    <t>Loi modifiant la loi sur l'imposition des personnes physiques (LIPP)</t>
-  </si>
-  <si>
-    <t>Loi modifiant la loi sur l'instruction publique (LIP)</t>
-  </si>
-  <si>
     <t>Transparenz-Initiative</t>
   </si>
   <si>
@@ -557,6 +545,37 @@
   </si>
   <si>
     <t>FR_prestations_complementaires</t>
+  </si>
+  <si>
+    <t>Concordat sur le transfert de Moutier au canton du Jura (et suppression de l'article 138)</t>
+  </si>
+  <si>
+    <t>Baisse de l'imposition des entrepreneurs</t>
+  </si>
+  <si>
+    <t>Modification de la durée de formation des enseignants de l'école primaire</t>
+  </si>
+  <si>
+    <t>Concordat sur le transfert de Moutier au canton du Jura</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-pW13N"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pW13N/embed.js" charset="utf-8" data-target="#datawrapper-vis-pW13N"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pW13N/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Änderung des Steuergesetzes (Steuergesetzrevision 2025)" aria-label="Karte" id="datawrapper-chart-pW13N" src="https://datawrapper.dwcdn.net/pW13N/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/pW13N/1/</t>
+  </si>
+  <si>
+    <t>pW13N</t>
+  </si>
+  <si>
+    <t>Änderung des Steuergesetzes (Steuergesetzrevision 2025)</t>
+  </si>
+  <si>
+    <t>LU_Steuergesetzrevision</t>
   </si>
 </sst>
 </file>
@@ -908,17 +927,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="214.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,25 +971,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -981,22 +1000,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,25 +1023,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,25 +1049,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,25 +1075,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,25 +1101,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,155 +1127,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>168</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,25 +1283,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1293,22 +1312,22 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,25 +1335,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,25 +1361,25 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,25 +1387,25 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,25 +1413,25 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,25 +1439,25 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,25 +1465,25 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,22 +1494,22 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,25 +1517,25 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,25 +1543,25 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,25 +1569,25 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1579,22 +1598,22 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,25 +1621,25 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,25 +1647,51 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>167</v>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D0C05-AB81-45BA-B722-C767927A74A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86904A21-6435-473C-9D07-663AB5B6A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
